--- a/alerts.xlsx
+++ b/alerts.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,8 +475,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>46061.61275462963</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:22</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -498,8 +496,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>46061.61275462963</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:22</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -517,8 +517,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>46061.61277777778</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:24</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -536,8 +538,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>46061.61277777778</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:24</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -555,8 +559,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>46061.61278935185</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:25</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -574,8 +580,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>46061.6130324074</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:46</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -593,8 +601,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>46061.6130324074</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:46</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -612,8 +622,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>46061.61305555556</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:48</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -631,8 +643,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>46061.61305555556</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:48</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -650,8 +664,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>46061.61306712963</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:49</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -669,8 +685,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>46061.6130787037</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:50</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -688,8 +706,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>46061.61310185185</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:52</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -707,8 +727,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>46061.61310185185</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:52</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -726,8 +748,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>46061.61311342593</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:42:53</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -745,8 +769,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>46061.6137037037</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:43:44</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -764,8 +790,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>46061.61372685185</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:43:46</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -783,8 +811,10 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>46061.61372685185</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:43:46</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -802,8 +832,52 @@
           <t>POSSIBLE THEFT</t>
         </is>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>46061.61373842593</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2026-02-08 14:43:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>101</v>
+      </c>
+      <c r="C20" t="n">
+        <v>284</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>POSSIBLE THEFT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:44:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>102</v>
+      </c>
+      <c r="C21" t="n">
+        <v>257</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>POSSIBLE THEFT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2026-02-10 14:44:29</t>
+        </is>
       </c>
     </row>
   </sheetData>
